--- a/Testing Sheet.xlsx
+++ b/Testing Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\University Work\Games Design - Year 3\AI - DAC619\Artificial_Intelligence_for_Games_(DAC619)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40001_{5B1712ED-CD57-4860-8CB9-CDC966AB4AA5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40001_{2A9E2F49-7970-4B12-9A91-8CA690EDD512}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440"/>
   </bookViews>
@@ -31,10 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
-  <si>
-    <t>GetHealthState</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
   <si>
     <t>Fails as all AI never find health kit in scene. (Fixed, enter method was never called due to incorrect usage of state machine.)</t>
   </si>
@@ -48,10 +45,16 @@
     <t>GetHealthKitState</t>
   </si>
   <si>
-    <t>Fails as AI never know when it has been picked up and stay within state trying to find it.</t>
-  </si>
-  <si>
-    <t>Fails as AI sensing is broken and so when an agent is within pickuprange of another agent they snatch it out of the other agent's inventory and the previous holder is unaware they've lost it.</t>
+    <t>Fails as AI sensing is broken and so when an agent is within pickuprange of another agent they snatch it out of the other agent's inventory and the previous holder is unaware they've lost it. (Fixed by fixing agent sensing for IsInInReach ())</t>
+  </si>
+  <si>
+    <t>Fails as AI will switch to wandering before collecting the health kit up from the ground. (Fixed by simply removing the switch to wander state after collecting and instead allowing the AI to realise it can no longer see it.)</t>
+  </si>
+  <si>
+    <t>Fails as AI never know when it has been picked up and stay within state trying to find it. (Fixed by changing the way we handle sensing of health kit.)</t>
+  </si>
+  <si>
+    <t>Works and AI returns to an idle wander state upon completion of task.</t>
   </si>
 </sst>
 </file>
@@ -87,8 +90,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -403,44 +409,69 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="M8:O15"/>
+  <dimension ref="B2:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="50.1" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="63" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="8" spans="13:15" x14ac:dyDescent="0.25">
-      <c r="M8" t="s">
+    <row r="2" spans="2:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="O8" t="s">
+    </row>
+    <row r="3" spans="2:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="2:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="2:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="13:15" x14ac:dyDescent="0.25">
-      <c r="M9" t="s">
-        <v>4</v>
-      </c>
-      <c r="O9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="13:15" x14ac:dyDescent="0.25">
-      <c r="M10" t="s">
-        <v>4</v>
-      </c>
-      <c r="O10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="13:15" x14ac:dyDescent="0.25">
-      <c r="M15" t="s">
+      <c r="D9" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="O15" t="s">
-        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Testing Sheet.xlsx
+++ b/Testing Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\University Work\Games Design - Year 3\AI - DAC619\Artificial_Intelligence_for_Games_(DAC619)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40001_{2A9E2F49-7970-4B12-9A91-8CA690EDD512}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40001_{2A312B72-3506-4F8B-BF65-966FAE23B5E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
   <si>
     <t>Fails as all AI never find health kit in scene. (Fixed, enter method was never called due to incorrect usage of state machine.)</t>
   </si>
@@ -55,6 +55,12 @@
   </si>
   <si>
     <t>Works and AI returns to an idle wander state upon completion of task.</t>
+  </si>
+  <si>
+    <t>Global_State Processing</t>
+  </si>
+  <si>
+    <t>Failed due to evaluating and constantly changing state back to the same one every tick update. (Fixed by making check if it was already in the selected state.)</t>
   </si>
 </sst>
 </file>
@@ -409,67 +415,87 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D9"/>
+  <dimension ref="B1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="50.1" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="63" customWidth="1"/>
+    <col min="2" max="2" width="31.5703125" customWidth="1"/>
+    <col min="4" max="4" width="78.5703125" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="2:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
     <row r="2" spans="2:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="2:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="2:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="2:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="2:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="2:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="2:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
       <c r="D8" s="1"/>
     </row>
     <row r="9" spans="2:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
         <v>2</v>
       </c>

--- a/Testing Sheet.xlsx
+++ b/Testing Sheet.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\University Work\Games Design - Year 3\AI - DAC619\Artificial_Intelligence_for_Games_(DAC619)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40001_{2A312B72-3506-4F8B-BF65-966FAE23B5E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{006FB16F-7860-46A4-8BCA-A342AB6E6110}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
   <si>
     <t>Fails as all AI never find health kit in scene. (Fixed, enter method was never called due to incorrect usage of state machine.)</t>
   </si>
@@ -61,12 +61,21 @@
   </si>
   <si>
     <t>Failed due to evaluating and constantly changing state back to the same one every tick update. (Fixed by making check if it was already in the selected state.)</t>
+  </si>
+  <si>
+    <t>State Comparison</t>
+  </si>
+  <si>
+    <t>Fails as GetType () returns the super class of the type given meaning that every state is the same as each other as they all implent interface IState&lt;T&gt;. (fixed)</t>
+  </si>
+  <si>
+    <t>Failed as it never bothered to pick up the health kit. (fixed as I needed to check if the item was in the inventory to keep the loop running with the new system in place.)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -414,11 +423,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="50.1" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -482,14 +491,22 @@
       </c>
     </row>
     <row r="7" spans="2:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="8" spans="2:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
+      <c r="D8" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="9" spans="2:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">

--- a/Testing Sheet.xlsx
+++ b/Testing Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\University Work\Games Design - Year 3\AI - DAC619\Artificial_Intelligence_for_Games_(DAC619)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{006FB16F-7860-46A4-8BCA-A342AB6E6110}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3C16AA9-D8A7-4903-A97B-5C03402FE031}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
   <si>
     <t>Fails as all AI never find health kit in scene. (Fixed, enter method was never called due to incorrect usage of state machine.)</t>
   </si>
@@ -70,6 +70,18 @@
   </si>
   <si>
     <t>Failed as it never bothered to pick up the health kit. (fixed as I needed to check if the item was in the inventory to keep the loop running with the new system in place.)</t>
+  </si>
+  <si>
+    <t>State_AttackEnemy</t>
+  </si>
+  <si>
+    <t>Fails as it attempts to attack an enemy and then stays put if it's not in range. (Fixed by making the enemy move towards the other as long as they can see them.)</t>
+  </si>
+  <si>
+    <t>Targeting System.SelectTarget</t>
+  </si>
+  <si>
+    <t>Failed with reference exception. (Fixed, accidentely set the distance variable to 0 when it should have been higher as we are checking for smallest distance. So no target was ever selected.)</t>
   </si>
 </sst>
 </file>
@@ -424,10 +436,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:D9"/>
+  <dimension ref="B1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="50.1" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -517,6 +529,22 @@
         <v>2</v>
       </c>
     </row>
+    <row r="10" spans="2:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Testing Sheet.xlsx
+++ b/Testing Sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\University Work\Games Design - Year 3\AI - DAC619\Artificial_Intelligence_for_Games_(DAC619)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3C16AA9-D8A7-4903-A97B-5C03402FE031}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6466445F-7B7F-425D-BB30-3B13D06796BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,57 +31,114 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
-  <si>
-    <t>Fails as all AI never find health kit in scene. (Fixed, enter method was never called due to incorrect usage of state machine.)</t>
-  </si>
-  <si>
-    <t>WanderState</t>
-  </si>
-  <si>
-    <t>Fails as all AI constantly change direction every tick due to process method being called every frame. (Fixed, added a delay timer to select a new random direction manually inside of wander state.)</t>
-  </si>
-  <si>
-    <t>GetHealthKitState</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
   <si>
     <t>Fails as AI sensing is broken and so when an agent is within pickuprange of another agent they snatch it out of the other agent's inventory and the previous holder is unaware they've lost it. (Fixed by fixing agent sensing for IsInInReach ())</t>
   </si>
   <si>
-    <t>Fails as AI will switch to wandering before collecting the health kit up from the ground. (Fixed by simply removing the switch to wander state after collecting and instead allowing the AI to realise it can no longer see it.)</t>
-  </si>
-  <si>
-    <t>Fails as AI never know when it has been picked up and stay within state trying to find it. (Fixed by changing the way we handle sensing of health kit.)</t>
-  </si>
-  <si>
-    <t>Works and AI returns to an idle wander state upon completion of task.</t>
-  </si>
-  <si>
-    <t>Global_State Processing</t>
-  </si>
-  <si>
-    <t>Failed due to evaluating and constantly changing state back to the same one every tick update. (Fixed by making check if it was already in the selected state.)</t>
-  </si>
-  <si>
-    <t>State Comparison</t>
-  </si>
-  <si>
-    <t>Fails as GetType () returns the super class of the type given meaning that every state is the same as each other as they all implent interface IState&lt;T&gt;. (fixed)</t>
-  </si>
-  <si>
     <t>Failed as it never bothered to pick up the health kit. (fixed as I needed to check if the item was in the inventory to keep the loop running with the new system in place.)</t>
   </si>
   <si>
-    <t>State_AttackEnemy</t>
-  </si>
-  <si>
     <t>Fails as it attempts to attack an enemy and then stays put if it's not in range. (Fixed by making the enemy move towards the other as long as they can see them.)</t>
   </si>
   <si>
-    <t>Targeting System.SelectTarget</t>
-  </si>
-  <si>
     <t>Failed with reference exception. (Fixed, accidentely set the distance variable to 0 when it should have been higher as we are checking for smallest distance. So no target was ever selected.)</t>
+  </si>
+  <si>
+    <t>World Manager</t>
+  </si>
+  <si>
+    <t>Crashes with NullReferenceException. (Fixed: never initialised the lists before accessing them.)</t>
+  </si>
+  <si>
+    <t>Goal_Search</t>
+  </si>
+  <si>
+    <t>Failed as they never select a new location after entering the current one they picked. (Fixed: minimum distance value was too low so they never determined they had gotten to the location they were heading to.)</t>
+  </si>
+  <si>
+    <t>Goal_FindFlag</t>
+  </si>
+  <si>
+    <t>Failed as it only works for the red team members.</t>
+  </si>
+  <si>
+    <t>Goal_CollectFlag</t>
+  </si>
+  <si>
+    <t>Failed as it get's near the flag but never does anything when in vicinity of it. (Fixed: Cheked wrong list for flag object in sight range.)</t>
+  </si>
+  <si>
+    <t>Failed as it never actually picks the flag up, it only get's within vicinity of it and then stops. (Fixed: There's a critical error in the basic sensing system which filters objects by a "collectable" tag and therefore never actually sees the flag as part of the filter. This means that the IsItemInReach sense never actually thinks a flag is reachable and therefore can never be collected, this is solved by including flags as a collectable in our view search.)</t>
+  </si>
+  <si>
+    <t>Works as intended and flag is collected upon reaching it.</t>
+  </si>
+  <si>
+    <t>Evaluator_GetEnemyFlag</t>
+  </si>
+  <si>
+    <t>Failed. Agent keeps trying to grab the flag again even when it's within their own base. (Fixed: Adjusted equation values and also added check to ensure that if enemy flag is in friendly base it's not desirable to grab it.)</t>
+  </si>
+  <si>
+    <t>Combination Test</t>
+  </si>
+  <si>
+    <t>Failed as AI lose track of agent data and results in null reference exception error from several goals. (Fixed: Removed teammates from collection when they've died and re-add them upon re-spawning.)</t>
+  </si>
+  <si>
+    <t>Failed as AI find it too desirable and constantly go there and get stuck fighting over it. (Fixed: Tweaked desirability of powerup.)</t>
+  </si>
+  <si>
+    <t>Evaluator_GetItem</t>
+  </si>
+  <si>
+    <t>Failed as AI will hang around the area until it respawns. (Fixed: Added evaluation so that if it can't be seen it's not desirable to grab it. )</t>
+  </si>
+  <si>
+    <t>Failed as it keeps picking the same position occassionally and will often get stuck in the same spot. (Fixed: Added simple recursive test to ensure currently selected position isn't the same as the one we're at.)</t>
+  </si>
+  <si>
+    <t>Global_Goal Processing</t>
+  </si>
+  <si>
+    <t>Failed due to evaluating and constantly changing goal back to the same one every tick update. (Fixed by making check if it was already in the selected goal.)</t>
+  </si>
+  <si>
+    <t>GetHealthKitgoal</t>
+  </si>
+  <si>
+    <t>Fails as all AI never find health kit in scene. (Fixed, enter method was never called due to incorrect usage of goal machine.)</t>
+  </si>
+  <si>
+    <t>Fails as AI never know when it has been picked up and stay within goal trying to find it. (Fixed by changing the way we handle sensing of health kit.)</t>
+  </si>
+  <si>
+    <t>Fails as AI will switch to wandering before collecting the health kit up from the ground. (Fixed by simply removing the switch to wander goal after collecting and instead allowing the AI to realise it can no longer see it.)</t>
+  </si>
+  <si>
+    <t>Works and AI returns to an idle wander goal upon completion of task.</t>
+  </si>
+  <si>
+    <t>goal Comparison</t>
+  </si>
+  <si>
+    <t>Fails as GetType () returns the super class of the type given meaning that every goal is the same as each other as they all implent interface Igoal&lt;T&gt;. (fixed)</t>
+  </si>
+  <si>
+    <t>Wandergoal</t>
+  </si>
+  <si>
+    <t>Fails as all AI constantly change direction every tick due to process method being called every frame. (Fixed, added a delay timer to select a new random direction manually inside of wander goal.)</t>
+  </si>
+  <si>
+    <t>goal_AttackEnemy</t>
+  </si>
+  <si>
+    <t>Failed. Agent stays stuck in desired goal even when having collected the flag. (Fixed: Agent was excluding itself from flag checks so it never knew it had collected it and always wanted to grab it.)</t>
+  </si>
+  <si>
+    <t>TargetingSystem.SelectTarget</t>
   </si>
 </sst>
 </file>
@@ -436,10 +493,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:D11"/>
+  <dimension ref="B1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="50.1" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -450,99 +507,195 @@
   <sheetData>
     <row r="1" spans="2:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="2:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="2:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="2:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="2:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="2:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="2:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="2:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="2:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="2:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="2:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="1" t="s">
+    </row>
+    <row r="20" spans="2:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="1" t="s">
         <v>16</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
